--- a/PaperCompetencyQuestions_Facts.xlsx
+++ b/PaperCompetencyQuestions_Facts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cefriel.sharepoint.com/sites/K-HUB/Documenti condivisi/General/dissemination/paper-eswc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azzini\Documents\K-HUB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{32A23EB6-D123-4F56-AC1A-0CA8FFBBBB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0EC65DD-57A5-4AA2-A463-D5786901D4F1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53A36DC3-5000-49C8-AF88-626BCC8640D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Competency Questions" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="100">
   <si>
     <t>Use Case ID</t>
   </si>
@@ -213,6 +213,9 @@
     <t>US4</t>
   </si>
   <si>
+    <t>CQ16</t>
+  </si>
+  <si>
     <t>Which are the tools required for the procedure X?</t>
   </si>
   <si>
@@ -331,9 +334,6 @@
   </si>
   <si>
     <t>A step is associated to the next one.</t>
-  </si>
-  <si>
-    <t>CQ16</t>
   </si>
 </sst>
 </file>
@@ -444,10 +444,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -749,9 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1073,13 +1067,13 @@
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1091,189 +1085,249 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="1"/>
-    <col min="2" max="2" width="69.81640625" customWidth="1"/>
+    <col min="1" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="69.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C10" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
         <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1283,28 +1337,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6a60e2f5-e663-45b7-9051-ee3c8521a2cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="49e364f8-bd3b-41c6-8911-b59b97be73e9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B2571329B4A6C4469ACCE09D0C656D3D" ma:contentTypeVersion="13" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="def18770fcd8c1c64d3412c71c4df146">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6a60e2f5-e663-45b7-9051-ee3c8521a2cc" xmlns:ns3="49e364f8-bd3b-41c6-8911-b59b97be73e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0eacf1a341e26c8c674aa71da3145769" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B2571329B4A6C4469ACCE09D0C656D3D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e741b1c45253bed42a7c0dbe04e7303">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6a60e2f5-e663-45b7-9051-ee3c8521a2cc" xmlns:ns3="49e364f8-bd3b-41c6-8911-b59b97be73e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b93b8164d042d4f198ef6982cf49e619" ns2:_="" ns3:_="">
     <xsd:import namespace="6a60e2f5-e663-45b7-9051-ee3c8521a2cc"/>
     <xsd:import namespace="49e364f8-bd3b-41c6-8911-b59b97be73e9"/>
     <xsd:element name="properties">
@@ -1357,7 +1391,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="cfcee230-0fd0-4f6c-8ffb-71ee4c9db45d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="cfcee230-0fd0-4f6c-8ffb-71ee4c9db45d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -1421,8 +1455,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1511,7 +1545,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6a60e2f5-e663-45b7-9051-ee3c8521a2cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="49e364f8-bd3b-41c6-8911-b59b97be73e9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D8BA6F-6C57-481A-ABB1-9EE48097EF8E}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21152A3F-6C8B-486B-9DE4-8A74F4F4EEDA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1519,7 +1577,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B3A5A3-46D0-40F0-8946-BD14A21BBDF0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1528,23 +1586,4 @@
     <ds:schemaRef ds:uri="49e364f8-bd3b-41c6-8911-b59b97be73e9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5BD7468-7151-4C42-A0F7-FB61935EEF96}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6a60e2f5-e663-45b7-9051-ee3c8521a2cc"/>
-    <ds:schemaRef ds:uri="49e364f8-bd3b-41c6-8911-b59b97be73e9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>